--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-ZZ-voorallegroepen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-ZZ-voorallegroepen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6953843C-FC86-4A9F-AC5A-DF65992D768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E491688-C4EA-4AD5-A80B-41AF6D7FC8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{95FEF504-022A-4637-B776-B1475B467A4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83C58ABE-E64A-471C-B1A1-C17B03335156}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-ZZ-voorall" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="207">
   <si>
     <t>objectURI</t>
   </si>
@@ -403,6 +403,12 @@
     <t>Maatvoering met teksthoogte 2.5</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/32975162-35da-412c-9691-2f17588a2936</t>
+  </si>
+  <si>
+    <t>GRENS_RAMINGSGRENS</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e379e3db-7852-4632-b2d7-8c8a03633b55</t>
   </si>
   <si>
@@ -472,12 +478,48 @@
     <t>HULPLIJN</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/06cfbe09-fc22-412b-92f6-bdb9db0fd0e9</t>
+  </si>
+  <si>
+    <t>DETAIL5</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0ed07195-cd00-494b-b858-f267996e8f29</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7577ea35-1159-4a22-a66f-78e08fa8c665</t>
+  </si>
+  <si>
+    <t>AFBREEKLIJN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0c0c9110-397e-4973-bc32-56b59c870f4f</t>
+  </si>
+  <si>
+    <t>ZZ-AFBREEKLIJN-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/a79370f8-62e6-4918-9938-711f54f9b1dc</t>
   </si>
   <si>
     <t>(L2.5)</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e9dc4626-0e6c-46b7-a900-a5bf9721513a</t>
+  </si>
+  <si>
+    <t>DETAIL4</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b1f85d1c-b368-428c-9a6d-6a045b4a389e</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/dff1fa9c-b79a-49b1-be7a-4b3876474e09</t>
   </si>
   <si>
@@ -529,15 +571,18 @@
     <t>(T5.0)</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b1f85d1c-b368-428c-9a6d-6a045b4a389e</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bb8062ac-6547-42da-a198-563304ce3541</t>
+  </si>
+  <si>
+    <t>(T7.0)</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e5ee8bbb-73dd-481d-a738-a3319df51a9e</t>
   </si>
   <si>
@@ -547,6 +592,12 @@
     <t>Maatvoering met teksthoogte 1.8</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1a5056b3-72d2-43f1-8ac1-a520e262e95f</t>
+  </si>
+  <si>
+    <t>(L5.0)</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/2def29e1-0c18-4df3-a9b4-e9c2e345843d</t>
   </si>
   <si>
@@ -565,33 +616,12 @@
     <t>(L7.0)</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0ed07195-cd00-494b-b858-f267996e8f29</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e1f66bc1-40fe-4fad-9d56-09a9956b0c07</t>
   </si>
   <si>
     <t>(M3.0)</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/32975162-35da-412c-9691-2f17588a2936</t>
-  </si>
-  <si>
-    <t>GRENS_RAMINGSGRENS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1a5056b3-72d2-43f1-8ac1-a520e262e95f</t>
-  </si>
-  <si>
-    <t>(L5.0)</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/33c428da-080b-49da-951b-0051ff11739e</t>
   </si>
   <si>
@@ -614,37 +644,13 @@
   </si>
   <si>
     <t>(M5.0)</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/06cfbe09-fc22-412b-92f6-bdb9db0fd0e9</t>
-  </si>
-  <si>
-    <t>DETAIL5</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7577ea35-1159-4a22-a66f-78e08fa8c665</t>
-  </si>
-  <si>
-    <t>AFBREEKLIJN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e9dc4626-0e6c-46b7-a900-a5bf9721513a</t>
-  </si>
-  <si>
-    <t>DETAIL4</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bb8062ac-6547-42da-a198-563304ce3541</t>
-  </si>
-  <si>
-    <t>(T7.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,14 +781,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1085,7 +1083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1128,13 +1126,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1163,7 +1159,6 @@
     <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1508,14 +1503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6CBF35-8928-4BBA-B6BF-24DD6BE4D4CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB9CF2-7289-456D-86BD-780D522D7735}">
   <dimension ref="A1:BS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.08984375" customWidth="1"/>
+    <col min="70" max="70" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1734,7 +1734,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1743,7 +1743,7 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
@@ -1752,25 +1752,25 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O2">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -1794,31 +1794,31 @@
         <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA2">
         <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AC2">
         <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG2">
         <v>10</v>
       </c>
       <c r="AH2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI2">
         <v>10</v>
@@ -1836,31 +1836,31 @@
         <v>89</v>
       </c>
       <c r="BB2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BC2">
         <v>10</v>
       </c>
       <c r="BD2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BE2">
         <v>10</v>
       </c>
       <c r="BF2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BG2">
         <v>10</v>
       </c>
       <c r="BH2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BI2">
         <v>10</v>
       </c>
       <c r="BJ2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BK2">
         <v>10</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1886,7 +1886,7 @@
         <v>2700</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
         <v>75</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2074,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
@@ -2083,25 +2083,25 @@
         <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M4">
         <v>160</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O4">
         <v>160</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>160</v>
       </c>
       <c r="R4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S4">
         <v>160</v>
@@ -2125,25 +2125,25 @@
         <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA4">
         <v>160</v>
       </c>
       <c r="AB4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC4">
         <v>160</v>
       </c>
       <c r="AD4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AE4">
         <v>160</v>
       </c>
       <c r="AF4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG4">
         <v>160</v>
@@ -2167,25 +2167,25 @@
         <v>91</v>
       </c>
       <c r="AN4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AO4">
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ4">
         <v>160</v>
       </c>
       <c r="AR4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS4">
         <v>160</v>
       </c>
       <c r="AT4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU4">
         <v>160</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2214,7 +2214,7 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
         <v>90</v>
@@ -2223,25 +2223,25 @@
         <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M5">
         <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="S5">
         <v>40</v>
@@ -2265,25 +2265,25 @@
         <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AA5">
         <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AC5">
         <v>40</v>
       </c>
       <c r="AD5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AE5">
         <v>40</v>
       </c>
       <c r="AF5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG5">
         <v>40</v>
@@ -2307,25 +2307,25 @@
         <v>91</v>
       </c>
       <c r="AN5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AO5">
         <v>40</v>
       </c>
       <c r="AP5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AQ5">
         <v>40</v>
       </c>
       <c r="AR5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AS5">
         <v>40</v>
       </c>
       <c r="AT5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AU5">
         <v>40</v>
@@ -2349,25 +2349,25 @@
         <v>91</v>
       </c>
       <c r="BB5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BC5">
         <v>40</v>
       </c>
       <c r="BD5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BE5">
         <v>40</v>
       </c>
       <c r="BF5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BG5">
         <v>40</v>
       </c>
       <c r="BH5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BI5">
         <v>40</v>
@@ -2386,8 +2386,8 @@
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>187</v>
+      <c r="A6" t="s">
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -2396,34 +2396,76 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6">
+        <v>130</v>
+      </c>
+      <c r="R6" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6">
+        <v>130</v>
+      </c>
+      <c r="T6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6">
+        <v>253</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Z6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AA6">
         <v>130</v>
       </c>
       <c r="AB6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AC6">
         <v>130</v>
       </c>
       <c r="AD6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AE6">
         <v>130</v>
       </c>
       <c r="AF6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AG6">
         <v>130</v>
@@ -2441,31 +2483,31 @@
         <v>82</v>
       </c>
       <c r="AL6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AM6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AN6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AO6">
         <v>130</v>
       </c>
       <c r="AP6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AQ6">
         <v>130</v>
       </c>
       <c r="AR6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AS6">
         <v>130</v>
       </c>
       <c r="AT6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AU6">
         <v>130</v>
@@ -2483,31 +2525,31 @@
         <v>82</v>
       </c>
       <c r="AZ6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="BA6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BB6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BC6">
         <v>130</v>
       </c>
       <c r="BD6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BE6">
         <v>130</v>
       </c>
       <c r="BF6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BG6">
         <v>130</v>
       </c>
       <c r="BH6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BI6">
         <v>130</v>
@@ -2527,7 +2569,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2536,34 +2578,34 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M7">
         <v>210</v>
       </c>
       <c r="N7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O7">
         <v>210</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>210</v>
       </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S7">
         <v>210</v>
@@ -2581,31 +2623,31 @@
         <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="Y7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="Z7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA7">
         <v>210</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AC7">
         <v>210</v>
       </c>
       <c r="AD7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AE7">
         <v>210</v>
       </c>
       <c r="AF7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AG7">
         <v>210</v>
@@ -2623,31 +2665,31 @@
         <v>82</v>
       </c>
       <c r="AL7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="AM7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AN7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AO7">
         <v>210</v>
       </c>
       <c r="AP7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AQ7">
         <v>210</v>
       </c>
       <c r="AR7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AS7">
         <v>210</v>
       </c>
       <c r="AT7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AU7">
         <v>210</v>
@@ -2665,31 +2707,31 @@
         <v>82</v>
       </c>
       <c r="AZ7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="BA7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BB7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BC7">
         <v>210</v>
       </c>
       <c r="BD7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BE7">
         <v>210</v>
       </c>
       <c r="BF7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BG7">
         <v>210</v>
       </c>
       <c r="BH7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BI7">
         <v>210</v>
@@ -2709,7 +2751,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2718,7 +2760,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
         <v>88</v>
@@ -2727,31 +2769,31 @@
         <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>10</v>
       </c>
       <c r="R8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S8">
         <v>10</v>
       </c>
       <c r="T8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="U8">
         <v>10</v>
@@ -2769,31 +2811,31 @@
         <v>89</v>
       </c>
       <c r="Z8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA8">
         <v>10</v>
       </c>
       <c r="AB8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AC8">
         <v>10</v>
       </c>
       <c r="AD8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AE8">
         <v>10</v>
       </c>
       <c r="AF8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG8">
         <v>10</v>
       </c>
       <c r="AH8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI8">
         <v>10</v>
@@ -2811,31 +2853,31 @@
         <v>89</v>
       </c>
       <c r="AN8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO8">
         <v>10</v>
       </c>
       <c r="AP8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ8">
         <v>10</v>
       </c>
       <c r="AR8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS8">
         <v>10</v>
       </c>
       <c r="AT8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AU8">
         <v>10</v>
       </c>
       <c r="AV8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AW8">
         <v>10</v>
@@ -2853,31 +2895,31 @@
         <v>89</v>
       </c>
       <c r="BB8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BC8">
         <v>10</v>
       </c>
       <c r="BD8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BE8">
         <v>10</v>
       </c>
       <c r="BF8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BG8">
         <v>10</v>
       </c>
       <c r="BH8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BI8">
         <v>10</v>
       </c>
       <c r="BJ8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BK8">
         <v>10</v>
@@ -2889,7 +2931,7 @@
         <v>82</v>
       </c>
       <c r="BS8" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
@@ -3088,7 +3130,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3097,7 +3139,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
@@ -3106,25 +3148,25 @@
         <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10">
         <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O10">
         <v>160</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>160</v>
       </c>
       <c r="R10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S10">
         <v>160</v>
@@ -3148,25 +3190,25 @@
         <v>91</v>
       </c>
       <c r="Z10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA10">
         <v>160</v>
       </c>
       <c r="AB10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC10">
         <v>160</v>
       </c>
       <c r="AD10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AE10">
         <v>160</v>
       </c>
       <c r="AF10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG10">
         <v>160</v>
@@ -3190,25 +3232,25 @@
         <v>91</v>
       </c>
       <c r="AN10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AO10">
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ10">
         <v>160</v>
       </c>
       <c r="AR10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS10">
         <v>160</v>
       </c>
       <c r="AT10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU10">
         <v>160</v>
@@ -3232,25 +3274,25 @@
         <v>91</v>
       </c>
       <c r="BB10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BC10">
         <v>160</v>
       </c>
       <c r="BD10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BE10">
         <v>160</v>
       </c>
       <c r="BF10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BG10">
         <v>160</v>
       </c>
       <c r="BH10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BI10">
         <v>160</v>
@@ -3270,7 +3312,7 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -3279,7 +3321,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
         <v>90</v>
@@ -3288,25 +3330,25 @@
         <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M11">
         <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O11">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="S11">
         <v>40</v>
@@ -3330,25 +3372,25 @@
         <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AA11">
         <v>40</v>
       </c>
       <c r="AB11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AC11">
         <v>40</v>
       </c>
       <c r="AD11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AE11">
         <v>40</v>
       </c>
       <c r="AF11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG11">
         <v>40</v>
@@ -3372,25 +3414,25 @@
         <v>91</v>
       </c>
       <c r="AN11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AO11">
         <v>40</v>
       </c>
       <c r="AP11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AQ11">
         <v>40</v>
       </c>
       <c r="AR11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AS11">
         <v>40</v>
       </c>
       <c r="AT11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AU11">
         <v>40</v>
@@ -3414,25 +3456,25 @@
         <v>91</v>
       </c>
       <c r="BB11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BC11">
         <v>40</v>
       </c>
       <c r="BD11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BE11">
         <v>40</v>
       </c>
       <c r="BF11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BG11">
         <v>40</v>
       </c>
       <c r="BH11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BI11">
         <v>40</v>
@@ -3452,7 +3494,7 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3461,34 +3503,34 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="M12">
         <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O12">
         <v>130</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>130</v>
       </c>
       <c r="R12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="S12">
         <v>130</v>
@@ -3506,31 +3548,31 @@
         <v>82</v>
       </c>
       <c r="AL12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AO12">
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ12">
         <v>160</v>
       </c>
       <c r="AR12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS12">
         <v>160</v>
       </c>
       <c r="AT12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AU12">
         <v>130</v>
@@ -3548,31 +3590,31 @@
         <v>82</v>
       </c>
       <c r="AZ12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="BA12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BB12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BC12">
         <v>130</v>
       </c>
       <c r="BD12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BE12">
         <v>130</v>
       </c>
       <c r="BF12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BG12">
         <v>130</v>
       </c>
       <c r="BH12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BI12">
         <v>130</v>
@@ -3592,7 +3634,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -3601,34 +3643,34 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M13">
         <v>210</v>
       </c>
       <c r="N13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O13">
         <v>210</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>210</v>
       </c>
       <c r="R13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S13">
         <v>210</v>
@@ -3646,31 +3688,31 @@
         <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="Z13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA13">
         <v>210</v>
       </c>
       <c r="AB13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AC13">
         <v>210</v>
       </c>
       <c r="AD13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AE13">
         <v>210</v>
       </c>
       <c r="AF13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AG13">
         <v>210</v>
@@ -3688,31 +3730,31 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AN13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AO13">
         <v>210</v>
       </c>
       <c r="AP13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AQ13">
         <v>210</v>
       </c>
       <c r="AR13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AS13">
         <v>210</v>
       </c>
       <c r="AT13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AU13">
         <v>210</v>
@@ -3732,7 +3774,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -3744,7 +3786,7 @@
         <v>2693</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
         <v>75</v>
@@ -3759,25 +3801,25 @@
         <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O14">
         <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>10</v>
       </c>
       <c r="R14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -3801,25 +3843,25 @@
         <v>89</v>
       </c>
       <c r="Z14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA14">
         <v>10</v>
       </c>
       <c r="AB14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AD14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AE14">
         <v>10</v>
       </c>
       <c r="AF14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG14">
         <v>10</v>
@@ -3843,25 +3885,25 @@
         <v>89</v>
       </c>
       <c r="AN14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO14">
         <v>10</v>
       </c>
       <c r="AP14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ14">
         <v>10</v>
       </c>
       <c r="AR14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS14">
         <v>10</v>
       </c>
       <c r="AT14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AU14">
         <v>10</v>
@@ -3885,25 +3927,25 @@
         <v>89</v>
       </c>
       <c r="BB14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BC14">
         <v>10</v>
       </c>
       <c r="BD14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BE14">
         <v>10</v>
       </c>
       <c r="BF14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BG14">
         <v>10</v>
       </c>
       <c r="BH14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BI14">
         <v>10</v>
@@ -3923,7 +3965,7 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -3935,7 +3977,7 @@
         <v>2694</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
         <v>75</v>
@@ -4114,7 +4156,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -4126,7 +4168,7 @@
         <v>2695</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -4141,25 +4183,25 @@
         <v>91</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16">
         <v>160</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O16">
         <v>160</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>160</v>
       </c>
       <c r="R16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S16">
         <v>160</v>
@@ -4183,25 +4225,25 @@
         <v>91</v>
       </c>
       <c r="Z16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA16">
         <v>160</v>
       </c>
       <c r="AB16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC16">
         <v>160</v>
       </c>
       <c r="AD16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AE16">
         <v>160</v>
       </c>
       <c r="AF16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG16">
         <v>160</v>
@@ -4225,25 +4267,25 @@
         <v>91</v>
       </c>
       <c r="AN16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AO16">
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ16">
         <v>160</v>
       </c>
       <c r="AR16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS16">
         <v>160</v>
       </c>
       <c r="AT16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AU16">
         <v>160</v>
@@ -4267,25 +4309,25 @@
         <v>91</v>
       </c>
       <c r="BB16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BC16">
         <v>160</v>
       </c>
       <c r="BD16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BE16">
         <v>160</v>
       </c>
       <c r="BF16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BG16">
         <v>160</v>
       </c>
       <c r="BH16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BI16">
         <v>160</v>
@@ -4305,7 +4347,7 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -4317,7 +4359,7 @@
         <v>2696</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -4332,25 +4374,25 @@
         <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M17">
         <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O17">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>40</v>
       </c>
       <c r="R17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="S17">
         <v>40</v>
@@ -4374,25 +4416,25 @@
         <v>91</v>
       </c>
       <c r="Z17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AA17">
         <v>40</v>
       </c>
       <c r="AB17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AC17">
         <v>40</v>
       </c>
       <c r="AD17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AE17">
         <v>40</v>
       </c>
       <c r="AF17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG17">
         <v>40</v>
@@ -4416,25 +4458,25 @@
         <v>91</v>
       </c>
       <c r="AN17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AO17">
         <v>40</v>
       </c>
       <c r="AP17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AQ17">
         <v>40</v>
       </c>
       <c r="AR17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AS17">
         <v>40</v>
       </c>
       <c r="AT17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AU17">
         <v>40</v>
@@ -4458,25 +4500,25 @@
         <v>91</v>
       </c>
       <c r="BB17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BC17">
         <v>40</v>
       </c>
       <c r="BD17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BE17">
         <v>40</v>
       </c>
       <c r="BF17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BG17">
         <v>40</v>
       </c>
       <c r="BH17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BI17">
         <v>40</v>
@@ -4496,7 +4538,7 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -4508,7 +4550,7 @@
         <v>2697</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
         <v>75</v>
@@ -4517,31 +4559,31 @@
         <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="M18">
         <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O18">
         <v>130</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>130</v>
       </c>
       <c r="R18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="S18">
         <v>130</v>
@@ -4559,31 +4601,31 @@
         <v>82</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Z18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AA18">
         <v>130</v>
       </c>
       <c r="AB18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AC18">
         <v>130</v>
       </c>
       <c r="AD18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AE18">
         <v>130</v>
       </c>
       <c r="AF18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AG18">
         <v>130</v>
@@ -4601,31 +4643,31 @@
         <v>82</v>
       </c>
       <c r="AL18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AM18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AO18">
         <v>130</v>
       </c>
       <c r="AP18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AQ18">
         <v>130</v>
       </c>
       <c r="AR18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AS18">
         <v>130</v>
       </c>
       <c r="AT18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AU18">
         <v>130</v>
@@ -4643,31 +4685,31 @@
         <v>82</v>
       </c>
       <c r="AZ18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="BA18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BB18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BC18">
         <v>130</v>
       </c>
       <c r="BD18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BE18">
         <v>130</v>
       </c>
       <c r="BF18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BG18">
         <v>130</v>
       </c>
       <c r="BH18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BI18">
         <v>130</v>
@@ -4687,7 +4729,7 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -4699,18 +4741,186 @@
         <v>2698</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
         <v>75</v>
       </c>
       <c r="I19" t="s">
         <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19">
+        <v>210</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19">
+        <v>210</v>
+      </c>
+      <c r="P19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19">
+        <v>210</v>
+      </c>
+      <c r="R19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S19">
+        <v>210</v>
+      </c>
+      <c r="T19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19">
+        <v>253</v>
+      </c>
+      <c r="V19" t="s">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA19">
+        <v>210</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC19">
+        <v>210</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE19">
+        <v>210</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG19">
+        <v>210</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI19">
+        <v>253</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO19">
+        <v>210</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ19">
+        <v>210</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS19">
+        <v>210</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU19">
+        <v>210</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW19">
+        <v>253</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC19">
+        <v>210</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE19">
+        <v>210</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG19">
+        <v>210</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI19">
+        <v>210</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK19">
+        <v>253</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -4722,18 +4932,186 @@
         <v>2701</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
         <v>75</v>
       </c>
       <c r="I20" t="s">
         <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20">
+        <v>253</v>
+      </c>
+      <c r="V20" t="s">
+        <v>157</v>
+      </c>
+      <c r="W20" t="s">
+        <v>158</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20">
+        <v>7</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE20">
+        <v>7</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG20">
+        <v>7</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI20">
+        <v>253</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20">
+        <v>7</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ20">
+        <v>7</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS20">
+        <v>7</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW20">
+        <v>253</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE20">
+        <v>7</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG20">
+        <v>7</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI20">
+        <v>7</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK20">
+        <v>253</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -4745,7 +5123,7 @@
         <v>2703</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
         <v>75</v>
@@ -4924,7 +5302,7 @@
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -4936,7 +5314,7 @@
         <v>2707</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
         <v>75</v>
@@ -5115,7 +5493,7 @@
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -5127,7 +5505,7 @@
         <v>2708</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
         <v>75</v>
@@ -5306,7 +5684,7 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -5318,7 +5696,7 @@
         <v>2709</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
         <v>75</v>
@@ -5497,7 +5875,7 @@
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -5509,18 +5887,186 @@
         <v>2710</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s">
         <v>75</v>
       </c>
       <c r="I25" t="s">
         <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25">
+        <v>253</v>
+      </c>
+      <c r="V25" t="s">
+        <v>81</v>
+      </c>
+      <c r="W25" t="s">
+        <v>82</v>
+      </c>
+      <c r="X25" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC25">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG25">
+        <v>7</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI25">
+        <v>253</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO25">
+        <v>7</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ25">
+        <v>7</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS25">
+        <v>7</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW25">
+        <v>253</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC25">
+        <v>7</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE25">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG25">
+        <v>7</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI25">
+        <v>7</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK25">
+        <v>253</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -5532,13 +6078,181 @@
         <v>2711</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="I26" t="s">
         <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26">
+        <v>253</v>
+      </c>
+      <c r="V26" t="s">
+        <v>81</v>
+      </c>
+      <c r="W26" t="s">
+        <v>82</v>
+      </c>
+      <c r="X26" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG26">
+        <v>7</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI26">
+        <v>253</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO26">
+        <v>7</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ26">
+        <v>7</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS26">
+        <v>7</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW26">
+        <v>253</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC26">
+        <v>7</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE26">
+        <v>7</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG26">
+        <v>7</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI26">
+        <v>7</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK26">
+        <v>253</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.35">
@@ -5555,7 +6269,7 @@
         <v>4086</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
         <v>75</v>
@@ -5734,7 +6448,7 @@
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -5743,7 +6457,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
         <v>104</v>
@@ -5806,31 +6520,31 @@
         <v>91</v>
       </c>
       <c r="Z28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC28">
         <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AE28">
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG28">
         <v>1</v>
       </c>
       <c r="AH28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI28">
         <v>1</v>
@@ -6519,7 +7233,7 @@
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -6528,7 +7242,7 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>104</v>
@@ -6541,6 +7255,48 @@
       </c>
       <c r="I32" t="s">
         <v>76</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>80</v>
+      </c>
+      <c r="U32">
+        <v>253</v>
+      </c>
+      <c r="V32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W32" t="s">
+        <v>82</v>
       </c>
       <c r="X32" t="s">
         <v>77</v>
@@ -7065,7 +7821,7 @@
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -7077,7 +7833,7 @@
         <v>2702</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
         <v>75</v>
@@ -7122,10 +7878,10 @@
         <v>253</v>
       </c>
       <c r="V35" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="W35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X35" t="s">
         <v>88</v>
@@ -7164,10 +7920,10 @@
         <v>253</v>
       </c>
       <c r="AJ35" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="AK35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AL35" t="s">
         <v>88</v>
@@ -7206,10 +7962,10 @@
         <v>253</v>
       </c>
       <c r="AX35" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="AY35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AZ35" t="s">
         <v>88</v>
@@ -7248,10 +8004,10 @@
         <v>253</v>
       </c>
       <c r="BL35" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="BM35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.35">
@@ -7453,7 +8209,7 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -7465,7 +8221,7 @@
         <v>3357</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s">
         <v>75</v>
@@ -7644,7 +8400,7 @@
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -7656,7 +8412,7 @@
         <v>2706</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
         <v>75</v>
@@ -7701,10 +8457,10 @@
         <v>253</v>
       </c>
       <c r="V38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="X38" t="s">
         <v>88</v>
@@ -7743,10 +8499,10 @@
         <v>253</v>
       </c>
       <c r="AJ38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL38" t="s">
         <v>88</v>
@@ -7785,10 +8541,10 @@
         <v>253</v>
       </c>
       <c r="AX38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AY38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AZ38" t="s">
         <v>88</v>
@@ -7827,10 +8583,10 @@
         <v>253</v>
       </c>
       <c r="BL38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BM38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.35">
@@ -7847,7 +8603,7 @@
         <v>3358</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
         <v>75</v>
@@ -9011,7 +9767,7 @@
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
@@ -9023,7 +9779,7 @@
         <v>2704</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H45" t="s">
         <v>75</v>
@@ -9068,10 +9824,10 @@
         <v>253</v>
       </c>
       <c r="V45" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="W45" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="X45" t="s">
         <v>88</v>
@@ -9110,10 +9866,10 @@
         <v>253</v>
       </c>
       <c r="AJ45" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AK45" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AL45" t="s">
         <v>88</v>
@@ -9152,10 +9908,10 @@
         <v>253</v>
       </c>
       <c r="AX45" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AY45" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AZ45" t="s">
         <v>88</v>
@@ -9194,21 +9950,18 @@
         <v>253</v>
       </c>
       <c r="BL45" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="BM45" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS45" xr:uid="{CE6CBF35-8928-4BBA-B6BF-24DD6BE4D4CB}">
+  <autoFilter ref="A1:BS45" xr:uid="{2FEB9CF2-7289-456D-86BD-780D522D7735}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS45">
       <sortCondition ref="E1:E45"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{7C466700-A03E-4FF6-A57F-94415F46AD43}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-ZZ-voorallegroepen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-ZZ-voorallegroepen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E491688-C4EA-4AD5-A80B-41AF6D7FC8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C87345AE-C474-4AC3-9575-6A768679779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83C58ABE-E64A-471C-B1A1-C17B03335156}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B981EB95-7C7A-4CF2-8847-3A84D8C49C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-ZZ-voorall" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="207">
   <si>
     <t>objectURI</t>
   </si>
@@ -616,6 +616,12 @@
     <t>(L7.0)</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/addf4501-183c-4b2a-bd65-ca13bd49bc53</t>
+  </si>
+  <si>
+    <t>(M5.0)</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e1f66bc1-40fe-4fad-9d56-09a9956b0c07</t>
   </si>
   <si>
@@ -638,12 +644,6 @@
   </si>
   <si>
     <t>(L3.0)</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/addf4501-183c-4b2a-bd65-ca13bd49bc53</t>
-  </si>
-  <si>
-    <t>(M5.0)</t>
   </si>
 </sst>
 </file>
@@ -1503,18 +1503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB9CF2-7289-456D-86BD-780D522D7735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7913E91-43B5-40B6-94D7-864DAD06D1A6}">
   <dimension ref="A1:BS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="BN17" sqref="BN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.08984375" customWidth="1"/>
-    <col min="70" max="70" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1734,7 +1732,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1743,7 +1741,13 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
@@ -2065,7 +2069,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2074,7 +2078,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
@@ -3130,7 +3134,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3139,7 +3143,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
@@ -3494,7 +3498,7 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3503,7 +3507,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
         <v>163</v>
@@ -3547,6 +3551,48 @@
       <c r="W12" t="s">
         <v>82</v>
       </c>
+      <c r="X12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA12">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC12">
+        <v>130</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE12">
+        <v>130</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG12">
+        <v>130</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI12">
+        <v>253</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>82</v>
+      </c>
       <c r="AL12" t="s">
         <v>163</v>
       </c>
@@ -3554,22 +3600,22 @@
         <v>164</v>
       </c>
       <c r="AN12" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AO12">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AP12" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AQ12">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AR12" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AS12">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AT12" t="s">
         <v>182</v>
@@ -3634,7 +3680,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -3643,7 +3689,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s">
         <v>153</v>
@@ -9957,7 +10003,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS45" xr:uid="{2FEB9CF2-7289-456D-86BD-780D522D7735}">
+  <autoFilter ref="A1:BS45" xr:uid="{D7913E91-43B5-40B6-94D7-864DAD06D1A6}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS45">
       <sortCondition ref="E1:E45"/>
     </sortState>
